--- a/Relevant Research Papers.xlsx
+++ b/Relevant Research Papers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia/Cynthia WorkSpace/serverless performance variability/ICSE24-approach design/GitHubCode/Serverless_Variance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia/Cynthia WorkSpace/serverless performance variability/ICSE24-approach design/GitHubCode/SCOPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2734B7C-B526-AC4A-8CB5-0C68C2AAD234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F195A5-4215-4149-873B-BC97CB0C578B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{9B19F5C4-31A9-F64E-82C4-037A3A6DEED7}"/>
   </bookViews>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3638C3B4-9D92-2B4D-BB6B-23602F182BA1}">
   <dimension ref="A1:XFB183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
